--- a/源码流程图.xlsx
+++ b/源码流程图.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24525" windowHeight="12240" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="12690" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Netty启动过程源码分析" sheetId="1" r:id="rId1"/>
     <sheet name="Dubbo服务发现" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Dubbo服务订阅" sheetId="3" r:id="rId3"/>
+    <sheet name="Dubbo服务调用" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>第一步 保存ChannelOptions</t>
   </si>
@@ -59,6 +60,48 @@
   <si>
     <t>加载注册中心的信息，读到注册中心的地址</t>
   </si>
+  <si>
+    <t>ProtocolConfig 把我们的服务在20880端口暴露出来，如果有多个端口需要暴露，我们配置多个dubbo:protocol标签就可以了</t>
+  </si>
+  <si>
+    <t>doExportUrlsFor1Protocol,通过动态代理获得invoker，然后生成一个带有URL的包装器</t>
+  </si>
+  <si>
+    <t>proxyfactory可以使用javassist或Jdk，javassist:不需要了解虚拟机指令，就能动态改变类的结构，或者动态生成类</t>
+  </si>
+  <si>
+    <t>doLocalExport：本地暴露，同一个jvm中的服务，相互调用不需要通过远程注册中心，但是又想使用filter链，可以使用本地暴露。</t>
+  </si>
+  <si>
+    <t>通过SIP看到协议默认是Dubbo</t>
+  </si>
+  <si>
+    <t>所以调用接口实现用Dubbo的export来实现</t>
+  </si>
+  <si>
+    <t>DubboProtocol的export做的事情，导入服务，生成DubboExport的容器，设置参数，最后调用openServer打开服务</t>
+  </si>
+  <si>
+    <t>//在服务器关闭时发送只读事件，默认情况下启用</t>
+  </si>
+  <si>
+    <t>//默认启用心跳</t>
+  </si>
+  <si>
+    <t>dubbo:reference标签对应的是ReferenceBean</t>
+  </si>
+  <si>
+    <t>reference标签会去spring容器中拿对象的实现，就会进入到ReferenceBean的getObject()方法。</t>
+  </si>
+  <si>
+    <t>refer，设置Protocol参数，例如注册中心地址，协议类型是dubbo</t>
+  </si>
+  <si>
+    <t>通过RPCInvocation创建代理对象</t>
+  </si>
+  <si>
+    <t>集群容错</t>
+  </si>
 </sst>
 </file>
 
@@ -79,39 +122,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -127,7 +139,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -135,16 +147,48 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -162,7 +206,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -170,11 +213,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -186,17 +236,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,14 +252,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -232,13 +275,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -250,7 +293,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -262,25 +401,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -292,7 +413,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -304,115 +455,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -423,21 +466,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -465,6 +493,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -476,6 +519,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -494,23 +552,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -518,8 +561,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -531,10 +574,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -543,133 +586,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1059,16 +1102,1215 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17840325" y="2876550"/>
+          <a:ext cx="4800600" cy="4591050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17830800" y="752475"/>
+          <a:ext cx="4200525" cy="2009775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>346075</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="直接箭头连接符 6"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18862675" y="2336800"/>
+          <a:ext cx="1835150" cy="1454150"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23288625" y="1019175"/>
+          <a:ext cx="5905500" cy="6591300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="直接箭头连接符 10"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="20031075" y="2114550"/>
+          <a:ext cx="6181725" cy="4819650"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="图片 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23307675" y="7905750"/>
+          <a:ext cx="7639050" cy="1219200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="图片 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23326725" y="9972675"/>
+          <a:ext cx="5924550" cy="2219325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="直接箭头连接符 14"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25079325" y="8648700"/>
+          <a:ext cx="638175" cy="2733675"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="图片 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23260050" y="19230975"/>
+          <a:ext cx="8343900" cy="2628900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="图片 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23250525" y="18002250"/>
+          <a:ext cx="5781675" cy="1066800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="直接箭头连接符 18"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="26631900" y="18830925"/>
+          <a:ext cx="180975" cy="752475"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="图片 19"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23241000" y="22364700"/>
+          <a:ext cx="7781925" cy="4524375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>183</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="图片 21"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="31213425" y="28384500"/>
+          <a:ext cx="5867400" cy="3048000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="图片 22"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="32061150" y="19592925"/>
+          <a:ext cx="9410700" cy="4305300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>250825</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>136525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="直接箭头连接符 20"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="29054425" y="20881975"/>
+          <a:ext cx="4921250" cy="2644775"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="直接箭头连接符 23"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="25250775" y="22831425"/>
+          <a:ext cx="7134225" cy="923925"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="图片 24"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="31442025" y="24641175"/>
+          <a:ext cx="6400800" cy="2667000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="直接箭头连接符 25"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24888825" y="26269950"/>
+          <a:ext cx="7410450" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>187</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="图片 26"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23212425" y="27784425"/>
+          <a:ext cx="7781925" cy="4362450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="直接箭头连接符 27"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="25098375" y="26269950"/>
+          <a:ext cx="9020175" cy="1971675"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="直接箭头连接符 28"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27070050" y="30270450"/>
+          <a:ext cx="4791075" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="图片 29"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23288625" y="12744450"/>
+          <a:ext cx="8420100" cy="4752975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="直接箭头连接符 5"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25298400" y="11820525"/>
+          <a:ext cx="1343025" cy="3876675"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="直接箭头连接符 17"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="25184100" y="17287875"/>
+          <a:ext cx="885825" cy="1181100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="图片 30"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="171450"/>
+          <a:ext cx="9677400" cy="4610100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="图片 32"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9867900" y="247650"/>
+          <a:ext cx="7048500" cy="5400675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="直接箭头连接符 3"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6353175" y="914400"/>
+          <a:ext cx="5353050" cy="2190750"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>635</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>86360</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1085,8 +2327,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="171450" y="247650"/>
-          <a:ext cx="9134475" cy="3276600"/>
+          <a:off x="635" y="247650"/>
+          <a:ext cx="9686925" cy="4257675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1101,16 +2343,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1127,8 +2369,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9629775" y="257175"/>
-          <a:ext cx="8020050" cy="5381625"/>
+          <a:off x="0" y="5314950"/>
+          <a:ext cx="6896100" cy="3762375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1141,28 +2383,616 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7305675" y="5324475"/>
+          <a:ext cx="4419600" cy="1809750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7315200" y="7362825"/>
+          <a:ext cx="4905375" cy="1514475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7315200" y="9153525"/>
+          <a:ext cx="4791075" cy="1295400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7315200" y="11058525"/>
+          <a:ext cx="7381875" cy="3438525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>635</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>267335</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="635" y="11020425"/>
+          <a:ext cx="5753100" cy="3781425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7258050" y="14944725"/>
+          <a:ext cx="6819900" cy="1476375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7286625" y="17354550"/>
+          <a:ext cx="6324600" cy="3514725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7296150" y="21250275"/>
+          <a:ext cx="5924550" cy="4314825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="图片 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7315200" y="25822275"/>
+          <a:ext cx="6000750" cy="5095875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="图片 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7353300" y="31137225"/>
+          <a:ext cx="6667500" cy="1581150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>191770</xdr:colOff>
+      <xdr:row>192</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>67945</xdr:colOff>
+      <xdr:row>206</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="图片 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7049770" y="32956500"/>
+          <a:ext cx="9477375" cy="2428875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>635</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>676910</xdr:colOff>
+      <xdr:row>206</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="图片 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="635" y="30165675"/>
+          <a:ext cx="6848475" cy="5276850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>635</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>676910</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="图片 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="635" y="22583775"/>
+          <a:ext cx="6848475" cy="6657975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>305</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>323</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="图片 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7543800" y="52292250"/>
+          <a:ext cx="6248400" cy="3181350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="直接箭头连接符 3"/>
+        <xdr:cNvPr id="19" name="直接箭头连接符 18"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9086850" y="2238375"/>
-          <a:ext cx="809625" cy="0"/>
+        <a:xfrm flipV="1">
+          <a:off x="2143125" y="6562725"/>
+          <a:ext cx="5657850" cy="2209800"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1188,17 +3018,989 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="直接箭头连接符 19"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7562850" y="6657975"/>
+          <a:ext cx="409575" cy="1600200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>327025</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="直接箭头连接符 20"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8556625" y="8451850"/>
+          <a:ext cx="835025" cy="1254125"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="直接箭头连接符 21"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9144000" y="9963150"/>
+          <a:ext cx="228600" cy="1752600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="直接箭头连接符 22"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2028825" y="11468100"/>
+          <a:ext cx="6162675" cy="2352675"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="直接箭头连接符 25"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3067050" y="14230350"/>
+          <a:ext cx="8915400" cy="1495425"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="直接箭头连接符 26"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9829800" y="15982950"/>
+          <a:ext cx="2305050" cy="3676650"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="直接箭头连接符 29"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9610725" y="19935825"/>
+          <a:ext cx="19050" cy="1647825"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="直接箭头连接符 30"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="10048875" y="24441150"/>
+          <a:ext cx="590550" cy="5181600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>188</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="直接箭头连接符 31"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9801225" y="29879925"/>
+          <a:ext cx="2200275" cy="2409825"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>189</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>204</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="直接箭头连接符 32"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8743950" y="32489775"/>
+          <a:ext cx="1314450" cy="2552700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>194</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>205</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="直接箭头连接符 33"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2085975" y="33299400"/>
+          <a:ext cx="7391400" cy="1952625"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>203</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="直接箭头连接符 36"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1266825" y="28946475"/>
+          <a:ext cx="1085850" cy="6010275"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="图片 23"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10344150" y="990600"/>
+          <a:ext cx="5305425" cy="3838575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="直接箭头连接符 13"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7629525" y="1752600"/>
+          <a:ext cx="7019925" cy="2305050"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="直接箭头连接符 24"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8982075" y="4467225"/>
+          <a:ext cx="2266950" cy="1257300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="直接箭头连接符 27"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1285875" y="9886950"/>
+          <a:ext cx="6257925" cy="4600575"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>635</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>257810</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="图片 35"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="635" y="18954750"/>
+          <a:ext cx="4371975" cy="3048000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="直接箭头连接符 37"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1000125" y="21640800"/>
+          <a:ext cx="9525" cy="3152775"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="直接箭头连接符 38"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2143125" y="14430375"/>
+          <a:ext cx="76200" cy="7248525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="342900"/>
+          <a:ext cx="6524625" cy="5543550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>582295</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>582295</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6754495" y="533400"/>
+          <a:ext cx="4800600" cy="7648575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1216,8 +4018,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17840325" y="2876550"/>
-          <a:ext cx="4800600" cy="4591050"/>
+          <a:off x="12334875" y="552450"/>
+          <a:ext cx="5924550" cy="5029200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1232,16 +4034,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1258,8 +4060,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17830800" y="752475"/>
-          <a:ext cx="4200525" cy="2009775"/>
+          <a:off x="12277725" y="6134100"/>
+          <a:ext cx="5324475" cy="3819525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1272,65 +4074,18 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>346075</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp>
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="直接箭头连接符 6"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="18862675" y="2336800"/>
-          <a:ext cx="1835150" cy="1454150"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>33</xdr:col>
       <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1347,8 +4102,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="23288625" y="1019175"/>
-          <a:ext cx="5905500" cy="6591300"/>
+          <a:off x="19173825" y="428625"/>
+          <a:ext cx="5915025" cy="7581900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1361,69 +4116,22 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>40</xdr:row>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp>
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="直接箭头连接符 10"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="20031075" y="2114550"/>
-          <a:ext cx="6181725" cy="4819650"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="图片 12"/>
+        <xdr:cNvPr id="11" name="图片 10"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1436,8 +4144,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="23307675" y="7905750"/>
-          <a:ext cx="7639050" cy="1219200"/>
+          <a:off x="19316700" y="8410575"/>
+          <a:ext cx="6115050" cy="3152775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1452,20 +4160,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="图片 13"/>
+        <xdr:cNvPr id="12" name="图片 11"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1478,8 +4186,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="23317200" y="9648825"/>
-          <a:ext cx="5924550" cy="2219325"/>
+          <a:off x="19354800" y="11753850"/>
+          <a:ext cx="7229475" cy="2295525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1492,28 +4200,154 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="图片 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13315950" y="10248900"/>
+          <a:ext cx="5153025" cy="4219575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="图片 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13344525" y="14763750"/>
+          <a:ext cx="6600825" cy="5715000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="图片 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20145375" y="14916150"/>
+          <a:ext cx="3971925" cy="3571875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="15" name="直接箭头连接符 14"/>
+        <xdr:cNvPr id="16" name="直接箭头连接符 15"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="25050750" y="8629650"/>
-          <a:ext cx="638175" cy="2343150"/>
+        <a:xfrm flipV="1">
+          <a:off x="8801100" y="1076325"/>
+          <a:ext cx="4448175" cy="6419850"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1523,13 +4357,436 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="2">
+        <a:lnRef idx="3">
           <a:schemeClr val="accent6"/>
         </a:lnRef>
         <a:fillRef idx="0">
           <a:schemeClr val="accent6"/>
         </a:fillRef>
-        <a:effectRef idx="1">
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="直接箭头连接符 16"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2771775" y="5210175"/>
+          <a:ext cx="5314950" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="直接箭头连接符 17"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15668625" y="1952625"/>
+          <a:ext cx="3990975" cy="3676650"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="直接箭头连接符 18"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="14011275" y="3514725"/>
+          <a:ext cx="828675" cy="2886075"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="直接箭头连接符 19"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="14020800" y="4743450"/>
+          <a:ext cx="114300" cy="1571625"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="直接箭头连接符 20"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="15297150" y="5705475"/>
+          <a:ext cx="4305300" cy="2486025"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>269875</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="直接箭头连接符 21"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20158075" y="5861050"/>
+          <a:ext cx="234950" cy="2921000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="直接箭头连接符 22"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="15011400" y="11077575"/>
+          <a:ext cx="5410200" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="直接箭头连接符 23"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="15049500" y="14452600"/>
+          <a:ext cx="279400" cy="692150"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>587375</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="直接箭头连接符 24"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="18418175" y="15811500"/>
+          <a:ext cx="3289300" cy="3502025"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
           <a:schemeClr val="accent6"/>
         </a:effectRef>
         <a:fontRef idx="minor">
@@ -1832,7 +5089,7 @@
   <dimension ref="Z45:AA53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1881,10 +5138,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AI56"/>
+  <dimension ref="A1:AW161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V31" workbookViewId="0">
-      <selection activeCell="AI57" sqref="AI57"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1925,6 +5182,51 @@
         <v>13</v>
       </c>
     </row>
+    <row r="57" spans="35:35">
+      <c r="AI57" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" spans="35:35">
+      <c r="AI73" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74" spans="35:35">
+      <c r="AI74" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="104" spans="35:35">
+      <c r="AI104" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="113" spans="48:48">
+      <c r="AV113" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="114" spans="49:49">
+      <c r="AW114" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="130" spans="35:35">
+      <c r="AI130" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="160" spans="35:35">
+      <c r="AI160" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="161" spans="35:35">
+      <c r="AI161" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1936,16 +5238,61 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:L64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="H60" sqref="H60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="64" spans="12:12">
+      <c r="L64" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:L3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J39" sqref="J39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <sheetData>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="12:12">
+      <c r="L3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/源码流程图.xlsx
+++ b/源码流程图.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12690" activeTab="3"/>
+    <workbookView windowWidth="24525" windowHeight="12240" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Netty启动过程源码分析" sheetId="1" r:id="rId1"/>
     <sheet name="Dubbo服务发现" sheetId="2" r:id="rId2"/>
     <sheet name="Dubbo服务订阅" sheetId="3" r:id="rId3"/>
     <sheet name="Dubbo服务调用" sheetId="4" r:id="rId4"/>
+    <sheet name="SpringIOC" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -5274,8 +5275,8 @@
   <sheetPr/>
   <dimension ref="A2:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J39" sqref="J39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -5295,4 +5296,20 @@
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/源码流程图.xlsx
+++ b/源码流程图.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24525" windowHeight="12240" activeTab="4"/>
+    <workbookView windowWidth="28125" windowHeight="12690"/>
   </bookViews>
   <sheets>
     <sheet name="Netty启动过程源码分析" sheetId="1" r:id="rId1"/>
@@ -109,10 +109,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -123,32 +123,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -162,16 +153,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -193,60 +183,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -259,9 +213,55 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -276,13 +276,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -294,19 +306,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -324,7 +324,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -342,7 +348,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -354,109 +450,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -470,41 +470,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -525,16 +501,40 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -553,8 +553,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -562,8 +562,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -575,10 +575,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -587,133 +587,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5089,8 +5089,8 @@
   <sheetPr/>
   <dimension ref="Z45:AA53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5142,7 +5142,7 @@
   <dimension ref="A1:AW161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5303,8 +5303,8 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/源码流程图.xlsx
+++ b/源码流程图.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12690"/>
+    <workbookView windowWidth="28125" windowHeight="12690" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Netty启动过程源码分析" sheetId="1" r:id="rId1"/>
@@ -5089,8 +5089,8 @@
   <sheetPr/>
   <dimension ref="Z45:AA53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K36" sqref="K36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5141,8 +5141,8 @@
   <sheetPr/>
   <dimension ref="A1:AW161"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" topLeftCell="AE37" workbookViewId="0">
+      <selection activeCell="AI57" sqref="AI57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5241,7 +5241,7 @@
   <sheetPr/>
   <dimension ref="A1:L64"/>
   <sheetViews>
-    <sheetView topLeftCell="A105" workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="H60" sqref="H60"/>
     </sheetView>
   </sheetViews>
@@ -5275,8 +5275,8 @@
   <sheetPr/>
   <dimension ref="A2:L3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
